--- a/medicine/Enfance/Sans_Atout_et_l'Invisible_agresseur/Sans_Atout_et_l'Invisible_agresseur.xlsx
+++ b/medicine/Enfance/Sans_Atout_et_l'Invisible_agresseur/Sans_Atout_et_l'Invisible_agresseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_l%27Invisible_agresseur</t>
+          <t>Sans_Atout_et_l'Invisible_agresseur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sans Atout et l'Invisible agresseur est un roman policier pour la jeunesse de Boileau-Narcejac, publié en 1984. Il s'agit du cinquième roman de la série des Sans Atout.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_l%27Invisible_agresseur</t>
+          <t>Sans_Atout_et_l'Invisible_agresseur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pierre Boileau et Thomas Narcejac, Sans Atout et l'Invisible agresseur, Éditions de l'Amitié, 1984, 159 p.
 Pierre Boileau et Thomas Narcejac, Sans atout et l'Invisible agresseur, Éditions Gallimard, 1998 (lire en ligne)</t>
